--- a/nonlife_2019/result_local_Z1split.xlsx
+++ b/nonlife_2019/result_local_Z1split.xlsx
@@ -483,16 +483,16 @@
         <v>0.8703525853805805</v>
       </c>
       <c r="C2">
-        <v>0.9576082895479519</v>
+        <v>0.9570093624646218</v>
       </c>
       <c r="D2">
-        <v>0.7234131901038533</v>
+        <v>0.721980932517492</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.8703525853805805</v>
+        <v>0.8692645582265723</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -515,19 +515,19 @@
         <v>0.5036692456866796</v>
       </c>
       <c r="C3">
-        <v>0.6300463377712022</v>
+        <v>0.6296131774418056</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7994161944793087</v>
+        <v>0.7977263987031639</v>
       </c>
       <c r="F3">
-        <v>0.6300463377712022</v>
+        <v>0.629180612303439</v>
       </c>
       <c r="G3">
-        <v>0.7994161944793087</v>
+        <v>0.7977263987031639</v>
       </c>
       <c r="H3">
         <v>0.3699536622287978</v>
@@ -547,19 +547,19 @@
         <v>0.9686468010310858</v>
       </c>
       <c r="C4">
-        <v>0.9686468010310859</v>
+        <v>0.9648040626689963</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9999999999999999</v>
+        <v>0.9962882239868489</v>
       </c>
       <c r="F4">
-        <v>0.9686468010310859</v>
+        <v>0.9609916930410088</v>
       </c>
       <c r="G4">
-        <v>0.9999999999999999</v>
+        <v>0.9962882239868489</v>
       </c>
       <c r="H4">
         <v>0.03135319896891409</v>
@@ -579,19 +579,19 @@
         <v>0.3646741848912952</v>
       </c>
       <c r="C5">
-        <v>0.7933260375038129</v>
+        <v>0.7926206570357042</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4596775696896782</v>
+        <v>0.4592770253020508</v>
       </c>
       <c r="F5">
-        <v>0.7933260375038129</v>
+        <v>0.7919165298217956</v>
       </c>
       <c r="G5">
-        <v>0.4596775696896782</v>
+        <v>0.4592770253020508</v>
       </c>
       <c r="H5">
         <v>0.2066739624961871</v>
@@ -643,19 +643,19 @@
         <v>0.3622598386264437</v>
       </c>
       <c r="C7">
-        <v>0.8195194832830178</v>
+        <v>0.8184380385439118</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4420393242821034</v>
+        <v>0.441489855677119</v>
       </c>
       <c r="F7">
-        <v>0.8195194832830178</v>
+        <v>0.8173594442103652</v>
       </c>
       <c r="G7">
-        <v>0.4420393242821034</v>
+        <v>0.441489855677119</v>
       </c>
       <c r="H7">
         <v>0.1804805167169822</v>
@@ -675,19 +675,19 @@
         <v>0.5275453970067747</v>
       </c>
       <c r="C8">
-        <v>0.737389058736172</v>
+        <v>0.7369075625978629</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7154234128601621</v>
+        <v>0.7145331672933954</v>
       </c>
       <c r="F8">
-        <v>0.737389058736172</v>
+        <v>0.7364266948584776</v>
       </c>
       <c r="G8">
-        <v>0.7154234128601621</v>
+        <v>0.7145331672933954</v>
       </c>
       <c r="H8">
         <v>0.262610941263828</v>
@@ -707,19 +707,19 @@
         <v>0.5954212540559204</v>
       </c>
       <c r="C9">
-        <v>0.7753903268129932</v>
+        <v>0.7748650756105422</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7678987388238628</v>
+        <v>0.7672137886422292</v>
       </c>
       <c r="F9">
-        <v>0.7753903268129932</v>
+        <v>0.7743405355391305</v>
       </c>
       <c r="G9">
-        <v>0.7678987388238628</v>
+        <v>0.7672137886422292</v>
       </c>
       <c r="H9">
         <v>0.2246096731870068</v>
@@ -739,19 +739,19 @@
         <v>0.4610346620206425</v>
       </c>
       <c r="C10">
-        <v>0.7263895442716617</v>
+        <v>0.7256370220351417</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6346934171291163</v>
+        <v>0.6338322619336796</v>
       </c>
       <c r="F10">
-        <v>0.7263895442716617</v>
+        <v>0.7248860573751738</v>
       </c>
       <c r="G10">
-        <v>0.6346934171291163</v>
+        <v>0.6338322619336796</v>
       </c>
       <c r="H10">
         <v>0.2736104557283383</v>
@@ -867,16 +867,16 @@
         <v>0.6406313775744206</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.9986970633586997</v>
       </c>
       <c r="D14">
-        <v>0.7694979565162264</v>
+        <v>0.7654491091907849</v>
       </c>
       <c r="E14">
         <v>0.6792483119116212</v>
       </c>
       <c r="F14">
-        <v>0.9431475446313289</v>
+        <v>0.9406930197336494</v>
       </c>
       <c r="G14">
         <v>0.6792483119116212</v>
@@ -899,19 +899,19 @@
         <v>0.5226227532843667</v>
       </c>
       <c r="C15">
-        <v>0.7428786567746422</v>
+        <v>0.7426606234981531</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7035102550306654</v>
+        <v>0.7032334434518718</v>
       </c>
       <c r="F15">
-        <v>0.7428786567746422</v>
+        <v>0.7424427181687004</v>
       </c>
       <c r="G15">
-        <v>0.7035102550306654</v>
+        <v>0.7032334434518718</v>
       </c>
       <c r="H15">
         <v>0.2571213432253578</v>
